--- a/ADXL355_IMU/layout.xlsx
+++ b/ADXL355_IMU/layout.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adam\Documents\GitHub\adamShiau_Python\ADXL355_IMU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\ADXL355_IMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA4BDF1-5FF8-4DF2-B2C5-206F0A5896ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A95E11-A28A-473A-BE15-33C46018512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1836" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="PP_IMU_B" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +80,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -121,6 +152,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -403,16 +439,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="A1:M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="3.625" customWidth="1"/>
+    <col min="1" max="13" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -461,7 +497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -478,7 +514,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
         <v>1</v>
@@ -496,7 +532,7 @@
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A15" si="1">A3+1</f>
         <v>2</v>
@@ -514,7 +550,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -532,7 +568,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -550,7 +586,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -568,7 +604,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -586,7 +622,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -604,7 +640,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -622,7 +658,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -640,7 +676,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -658,7 +694,7 @@
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -676,7 +712,7 @@
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -694,7 +730,7 @@
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -712,7 +748,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -731,4 +767,341 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F234C33-9D33-4787-9A8D-8A256F2E15A5}">
+  <dimension ref="A1:M16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <f>B1+1</f>
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <f t="shared" ref="D1:M1" si="0">C1+1</f>
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <f>K1+1</f>
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A15" si="1">A3+1</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ADXL355_IMU/layout.xlsx
+++ b/ADXL355_IMU/layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\adamShiau_Python\ADXL355_IMU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A95E11-A28A-473A-BE15-33C46018512E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB612BA-E4B9-4B40-92FB-5DBA94050F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>MAIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,6 +66,20 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -141,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -157,6 +188,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -439,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M16" sqref="A1:M16"/>
     </sheetView>
   </sheetViews>
@@ -771,10 +811,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F234C33-9D33-4787-9A8D-8A256F2E15A5}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:AT29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -782,115 +822,269 @@
     <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="11" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="46" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <f>B1+1</f>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <f t="shared" ref="D1:M1" si="0">C1+1</f>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <f>B3+1</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:M3" si="0">C3+1</f>
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E3" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F3" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G3" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H3" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I3" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J3" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K3" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L1" s="1">
-        <f>K1+1</f>
+      <c r="L3" s="1">
+        <f>K3+1</f>
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M3" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="P3" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2+1</f>
+      <c r="Q3" s="1">
+        <f>P3+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="R3" s="1">
+        <f t="shared" ref="R3" si="1">Q3+1</f>
+        <v>2</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" ref="S3" si="2">R3+1</f>
+        <v>3</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" ref="T3" si="3">S3+1</f>
+        <v>4</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" ref="U3" si="4">T3+1</f>
+        <v>5</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3" si="5">U3+1</f>
+        <v>6</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" ref="W3" si="6">V3+1</f>
+        <v>7</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" ref="X3" si="7">W3+1</f>
+        <v>8</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3" si="8">X3+1</f>
+        <v>9</v>
+      </c>
+      <c r="Z3" s="1">
+        <f>Y3+1</f>
+        <v>10</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" ref="AA3" si="9">Z3+1</f>
+        <v>11</v>
+      </c>
+      <c r="AB3">
+        <v>12</v>
+      </c>
+      <c r="AC3">
+        <v>13</v>
+      </c>
+      <c r="AD3">
+        <v>14</v>
+      </c>
+      <c r="AE3">
+        <v>15</v>
+      </c>
+      <c r="AF3">
+        <v>16</v>
+      </c>
+      <c r="AG3">
+        <v>17</v>
+      </c>
+      <c r="AH3">
+        <v>18</v>
+      </c>
+      <c r="AI3">
+        <v>19</v>
+      </c>
+      <c r="AJ3">
+        <v>20</v>
+      </c>
+      <c r="AK3">
+        <v>21</v>
+      </c>
+      <c r="AL3">
+        <v>22</v>
+      </c>
+      <c r="AM3">
+        <v>23</v>
+      </c>
+      <c r="AN3">
+        <v>24</v>
+      </c>
+      <c r="AO3">
+        <v>25</v>
+      </c>
+      <c r="AP3">
+        <v>26</v>
+      </c>
+      <c r="AQ3">
+        <v>27</v>
+      </c>
+      <c r="AR3">
+        <v>28</v>
+      </c>
+      <c r="AS3">
+        <v>29</v>
+      </c>
+      <c r="AT3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A15" si="1">A3+1</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+    </row>
+    <row r="5" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>A4+1</f>
+        <v>1</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -901,14 +1095,38 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="O5">
+        <f>O4+1</f>
+        <v>1</v>
+      </c>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+    </row>
+    <row r="6" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" ref="A6:A17" si="10">A5+1</f>
+        <v>2</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -919,14 +1137,38 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="O6">
+        <f t="shared" ref="O6:O17" si="11">O5+1</f>
+        <v>2</v>
+      </c>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+    </row>
+    <row r="7" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -940,11 +1182,35 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+    </row>
+    <row r="8" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -955,14 +1221,38 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="O8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+    </row>
+    <row r="9" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="1"/>
-        <v>7</v>
+        <f t="shared" si="10"/>
+        <v>5</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -973,14 +1263,38 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="O9">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+    </row>
+    <row r="10" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -994,47 +1308,119 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+    </row>
+    <row r="11" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="O11">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+    </row>
+    <row r="12" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="O12">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+    </row>
+    <row r="13" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="10"/>
         <v>9</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="1"/>
-        <v>11</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1048,11 +1434,35 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+    </row>
+    <row r="14" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1066,11 +1476,35 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+    </row>
+    <row r="15" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -1084,22 +1518,312 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="O15">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+    </row>
+    <row r="16" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
+      <c r="O16">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+    </row>
+    <row r="17" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="O17">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+    </row>
+    <row r="18" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="O18">
+        <v>14</v>
+      </c>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+    </row>
+    <row r="19" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>15</v>
+      </c>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+    </row>
+    <row r="20" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>16</v>
+      </c>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+    </row>
+    <row r="21" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>17</v>
+      </c>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+    </row>
+    <row r="22" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>18</v>
+      </c>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+    </row>
+    <row r="23" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>19</v>
+      </c>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="14"/>
+      <c r="AE23" s="14"/>
+      <c r="AF23" s="14"/>
+      <c r="AG23" s="14"/>
+      <c r="AH23" s="14"/>
+      <c r="AI23" s="14"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:M2"/>
+    <mergeCell ref="O1:AA2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
